--- a/xls/stats-first_response-colin2.xlsx
+++ b/xls/stats-first_response-colin2.xlsx
@@ -14,18 +14,18 @@
     <sheet name="Memory_usage" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Makespan!$A$1:$F$27</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Memory_usage'!$A$1:$F$27</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Number_of_actions'!$A$1:$F$27</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Planning_results'!$A$1:$F$27</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Processing_time'!$A$1:$F$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Makespan!$A$1:$F$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Memory_usage'!$A$1:$F$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Number_of_actions'!$A$1:$F$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Planning_results'!$A$1:$F$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Processing_time'!$A$1:$F$35</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="55">
   <si>
     <t>Tool</t>
   </si>
@@ -48,6 +48,18 @@
     <t>Object</t>
   </si>
   <si>
+    <t>$0.25$</t>
+  </si>
+  <si>
+    <t>$0.50$</t>
+  </si>
+  <si>
+    <t>$0.75$</t>
+  </si>
+  <si>
+    <t>$1.00$</t>
+  </si>
+  <si>
     <t>Action</t>
   </si>
   <si>
@@ -93,12 +105,18 @@
     <t>30.3</t>
   </si>
   <si>
+    <t>11.2</t>
+  </si>
+  <si>
     <t>23.4</t>
   </si>
   <si>
     <t xml:space="preserve"> 4.8</t>
   </si>
   <si>
+    <t>12.7</t>
+  </si>
+  <si>
     <t>15.5</t>
   </si>
   <si>
@@ -126,16 +144,25 @@
     <t xml:space="preserve"> 5.6</t>
   </si>
   <si>
+    <t xml:space="preserve"> 4.5</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 8.9</t>
   </si>
   <si>
     <t xml:space="preserve"> 0.6</t>
   </si>
   <si>
+    <t xml:space="preserve"> 6.9</t>
+  </si>
+  <si>
     <t>16.9</t>
   </si>
   <si>
     <t xml:space="preserve"> 2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.6</t>
   </si>
   <si>
     <t>11.3</t>
@@ -549,7 +576,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -559,7 +586,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
@@ -590,8 +617,8 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2">
-        <v>0.25</v>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="2">
         <v>56</v>
@@ -610,8 +637,8 @@
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.5</v>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C3" s="2">
         <v>61</v>
@@ -630,8 +657,8 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.75</v>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="2">
         <v>33</v>
@@ -648,419 +675,419 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.25</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C5" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.5</v>
-      </c>
       <c r="C6" s="2">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2">
         <v>20</v>
       </c>
       <c r="E6" s="2">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.75</v>
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C7" s="2">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2">
         <v>20</v>
       </c>
       <c r="E7" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F7" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.25</v>
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C8" s="2">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="F8" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.5</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="2">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E9" s="2">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="F9" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.75</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C10" s="2">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D10" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E10" s="2">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.25</v>
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C11" s="2">
         <v>59</v>
       </c>
       <c r="D11" s="2">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F11" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2">
-        <v>0.5</v>
-      </c>
       <c r="C12" s="2">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D12" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.75</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C13" s="2">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D13" s="2">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F13" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.25</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C14" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D14" s="2">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E14" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F14" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.5</v>
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C15" s="2">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D15" s="2">
         <v>22</v>
       </c>
       <c r="E15" s="2">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F15" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.75</v>
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C16" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="2">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E16" s="2">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F16" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.25</v>
+        <v>13</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C17" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="D17" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E17" s="2">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="F17" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.5</v>
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C18" s="2">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D18" s="2">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E18" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F18" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.75</v>
+        <v>14</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C19" s="2">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D19" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E19" s="2">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F19" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.25</v>
+        <v>14</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C20" s="2">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="D20" s="2">
         <v>20</v>
       </c>
       <c r="E20" s="2">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F20" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.5</v>
+        <v>14</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C21" s="2">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="D21" s="2">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E21" s="2">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="F21" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.75</v>
+        <v>15</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C22" s="2">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="D22" s="2">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E22" s="2">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F22" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.25</v>
+        <v>15</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C23" s="2">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D23" s="2">
         <v>23</v>
       </c>
       <c r="E23" s="2">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F23" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0.5</v>
+        <v>15</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C24" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D24" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24" s="2">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0.75</v>
+        <v>15</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C25" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D25" s="2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E25" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -1068,33 +1095,193 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2">
+        <v>73</v>
+      </c>
+      <c r="D26" s="2">
+        <v>20</v>
+      </c>
+      <c r="E26" s="2">
+        <v>4</v>
+      </c>
+      <c r="F26" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="2">
+        <v>66</v>
+      </c>
+      <c r="D27" s="2">
+        <v>16</v>
+      </c>
+      <c r="E27" s="2">
+        <v>16</v>
+      </c>
+      <c r="F27" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="2">
+        <v>44</v>
+      </c>
+      <c r="D28" s="2">
+        <v>26</v>
+      </c>
+      <c r="E28" s="2">
+        <v>28</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="2">
+        <v>47</v>
+      </c>
+      <c r="D29" s="2">
+        <v>18</v>
+      </c>
+      <c r="E29" s="2">
+        <v>32</v>
+      </c>
+      <c r="F29" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="2">
+        <v>46</v>
+      </c>
+      <c r="D30" s="2">
+        <v>23</v>
+      </c>
+      <c r="E30" s="2">
+        <v>31</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="2">
+        <v>41</v>
+      </c>
+      <c r="D31" s="2">
+        <v>18</v>
+      </c>
+      <c r="E31" s="2">
+        <v>40</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="2">
+        <v>31</v>
+      </c>
+      <c r="D32" s="2">
         <v>15</v>
       </c>
-      <c r="C26" s="2">
+      <c r="E32" s="2">
+        <v>54</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="2">
+        <v>31</v>
+      </c>
+      <c r="D33" s="2">
+        <v>13</v>
+      </c>
+      <c r="E33" s="2">
+        <v>56</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="2">
         <v>62</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D34" s="2">
         <v>32</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E34" s="2">
         <v>5</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F34" s="2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F27"/>
+  <autoFilter ref="A1:F35"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1104,7 +1291,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
@@ -1135,8 +1322,8 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2">
-        <v>0.25</v>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="3">
         <v>65</v>
@@ -1148,15 +1335,15 @@
         <v>-1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.5</v>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C3" s="3">
         <v>66</v>
@@ -1168,15 +1355,15 @@
         <v>-1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.75</v>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="3">
         <v>56</v>
@@ -1188,18 +1375,18 @@
         <v>-1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.25</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C5" s="3">
-        <v>64.5</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="D5" s="2">
         <v>-1</v>
@@ -1208,18 +1395,18 @@
         <v>-1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.5</v>
-      </c>
       <c r="C6" s="3">
-        <v>62.3</v>
+        <v>64.5</v>
       </c>
       <c r="D6" s="2">
         <v>-1</v>
@@ -1228,18 +1415,18 @@
         <v>-1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.75</v>
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C7" s="3">
-        <v>74.2</v>
+        <v>62.3</v>
       </c>
       <c r="D7" s="2">
         <v>-1</v>
@@ -1248,18 +1435,18 @@
         <v>-1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.25</v>
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C8" s="3">
-        <v>67.7</v>
+        <v>74.2</v>
       </c>
       <c r="D8" s="2">
         <v>-1</v>
@@ -1268,18 +1455,18 @@
         <v>-1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.5</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="3">
-        <v>62.2</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="D9" s="2">
         <v>-1</v>
@@ -1288,18 +1475,18 @@
         <v>-1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.75</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C10" s="3">
-        <v>56.2</v>
+        <v>67.7</v>
       </c>
       <c r="D10" s="2">
         <v>-1</v>
@@ -1308,18 +1495,18 @@
         <v>-1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.25</v>
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C11" s="3">
-        <v>67.40000000000001</v>
+        <v>62.2</v>
       </c>
       <c r="D11" s="2">
         <v>-1</v>
@@ -1328,18 +1515,18 @@
         <v>-1</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2">
-        <v>0.5</v>
-      </c>
       <c r="C12" s="3">
-        <v>68.3</v>
+        <v>56.2</v>
       </c>
       <c r="D12" s="2">
         <v>-1</v>
@@ -1348,18 +1535,18 @@
         <v>-1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.75</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C13" s="3">
-        <v>58.7</v>
+        <v>74</v>
       </c>
       <c r="D13" s="2">
         <v>-1</v>
@@ -1368,18 +1555,18 @@
         <v>-1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.25</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C14" s="3">
-        <v>74.5</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D14" s="2">
         <v>-1</v>
@@ -1388,18 +1575,18 @@
         <v>-1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.5</v>
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C15" s="3">
-        <v>72</v>
+        <v>68.3</v>
       </c>
       <c r="D15" s="2">
         <v>-1</v>
@@ -1408,18 +1595,18 @@
         <v>-1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.75</v>
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C16" s="3">
-        <v>87.09999999999999</v>
+        <v>58.7</v>
       </c>
       <c r="D16" s="2">
         <v>-1</v>
@@ -1428,18 +1615,18 @@
         <v>-1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.25</v>
+        <v>13</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C17" s="3">
-        <v>72.59999999999999</v>
+        <v>58.8</v>
       </c>
       <c r="D17" s="2">
         <v>-1</v>
@@ -1448,18 +1635,18 @@
         <v>-1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.5</v>
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C18" s="3">
-        <v>63.8</v>
+        <v>74.5</v>
       </c>
       <c r="D18" s="2">
         <v>-1</v>
@@ -1468,18 +1655,18 @@
         <v>-1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.75</v>
+        <v>14</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C19" s="3">
-        <v>62.5</v>
+        <v>72</v>
       </c>
       <c r="D19" s="2">
         <v>-1</v>
@@ -1488,18 +1675,18 @@
         <v>-1</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.25</v>
+        <v>14</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C20" s="3">
-        <v>68.59999999999999</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="D20" s="2">
         <v>-1</v>
@@ -1508,18 +1695,18 @@
         <v>-1</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.5</v>
+        <v>14</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C21" s="3">
-        <v>80.90000000000001</v>
+        <v>74.5</v>
       </c>
       <c r="D21" s="2">
         <v>-1</v>
@@ -1528,18 +1715,18 @@
         <v>-1</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.75</v>
+        <v>15</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C22" s="3">
-        <v>76.09999999999999</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="D22" s="2">
         <v>-1</v>
@@ -1548,18 +1735,18 @@
         <v>-1</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.25</v>
+        <v>15</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C23" s="3">
-        <v>69.59999999999999</v>
+        <v>63.8</v>
       </c>
       <c r="D23" s="2">
         <v>-1</v>
@@ -1568,18 +1755,18 @@
         <v>-1</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0.5</v>
+        <v>15</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C24" s="3">
-        <v>73.2</v>
+        <v>62.5</v>
       </c>
       <c r="D24" s="2">
         <v>-1</v>
@@ -1588,18 +1775,18 @@
         <v>-1</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0.75</v>
+        <v>15</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C25" s="3">
-        <v>76.09999999999999</v>
+        <v>60.3</v>
       </c>
       <c r="D25" s="2">
         <v>-1</v>
@@ -1608,38 +1795,198 @@
         <v>-1</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C26" s="3">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="D26" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="3">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="D27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="D28" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E28" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="3">
+        <v>84.5</v>
+      </c>
+      <c r="D29" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="3">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="D30" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="3">
+        <v>73.2</v>
+      </c>
+      <c r="D31" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E31" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="3">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="D32" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="3">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="D33" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E33" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="3">
         <v>71.7</v>
       </c>
-      <c r="D26" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E26" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>18</v>
+      <c r="D34" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E34" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F27"/>
+  <autoFilter ref="A1:F35"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1649,7 +1996,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
@@ -1680,8 +2027,8 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2">
-        <v>0.25</v>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="3">
         <v>176.8</v>
@@ -1693,15 +2040,15 @@
         <v>-1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.5</v>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C3" s="3">
         <v>168.5</v>
@@ -1713,15 +2060,15 @@
         <v>-1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.75</v>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="3">
         <v>122.5</v>
@@ -1733,18 +2080,18 @@
         <v>-1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.25</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C5" s="3">
-        <v>176.3</v>
+        <v>144.3</v>
       </c>
       <c r="D5" s="2">
         <v>-1</v>
@@ -1753,18 +2100,18 @@
         <v>-1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.5</v>
-      </c>
       <c r="C6" s="3">
-        <v>140.9</v>
+        <v>176.3</v>
       </c>
       <c r="D6" s="2">
         <v>-1</v>
@@ -1773,18 +2120,18 @@
         <v>-1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.75</v>
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C7" s="3">
-        <v>142.5</v>
+        <v>140.9</v>
       </c>
       <c r="D7" s="2">
         <v>-1</v>
@@ -1793,18 +2140,18 @@
         <v>-1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.25</v>
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C8" s="3">
-        <v>186.9</v>
+        <v>142.5</v>
       </c>
       <c r="D8" s="2">
         <v>-1</v>
@@ -1813,18 +2160,18 @@
         <v>-1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.5</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="3">
-        <v>150.7</v>
+        <v>136.1</v>
       </c>
       <c r="D9" s="2">
         <v>-1</v>
@@ -1833,18 +2180,18 @@
         <v>-1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.75</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C10" s="3">
-        <v>133.2</v>
+        <v>186.9</v>
       </c>
       <c r="D10" s="2">
         <v>-1</v>
@@ -1853,18 +2200,18 @@
         <v>-1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.25</v>
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C11" s="3">
-        <v>174.7</v>
+        <v>150.7</v>
       </c>
       <c r="D11" s="2">
         <v>-1</v>
@@ -1873,18 +2220,18 @@
         <v>-1</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2">
-        <v>0.5</v>
-      </c>
       <c r="C12" s="3">
-        <v>169.6</v>
+        <v>133.2</v>
       </c>
       <c r="D12" s="2">
         <v>-1</v>
@@ -1893,18 +2240,18 @@
         <v>-1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.75</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C13" s="3">
-        <v>127.1</v>
+        <v>147.7</v>
       </c>
       <c r="D13" s="2">
         <v>-1</v>
@@ -1913,18 +2260,18 @@
         <v>-1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.25</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C14" s="3">
-        <v>190.4</v>
+        <v>174.7</v>
       </c>
       <c r="D14" s="2">
         <v>-1</v>
@@ -1933,18 +2280,18 @@
         <v>-1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.5</v>
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C15" s="3">
-        <v>171.7</v>
+        <v>169.6</v>
       </c>
       <c r="D15" s="2">
         <v>-1</v>
@@ -1953,18 +2300,18 @@
         <v>-1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.75</v>
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C16" s="3">
-        <v>165.4</v>
+        <v>127.1</v>
       </c>
       <c r="D16" s="2">
         <v>-1</v>
@@ -1973,18 +2320,18 @@
         <v>-1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.25</v>
+        <v>13</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C17" s="3">
-        <v>192.3</v>
+        <v>132.2</v>
       </c>
       <c r="D17" s="2">
         <v>-1</v>
@@ -1993,18 +2340,18 @@
         <v>-1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.5</v>
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C18" s="3">
-        <v>157.5</v>
+        <v>190.4</v>
       </c>
       <c r="D18" s="2">
         <v>-1</v>
@@ -2013,18 +2360,18 @@
         <v>-1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.75</v>
+        <v>14</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C19" s="3">
-        <v>140.9</v>
+        <v>171.7</v>
       </c>
       <c r="D19" s="2">
         <v>-1</v>
@@ -2033,18 +2380,18 @@
         <v>-1</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.25</v>
+        <v>14</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C20" s="3">
-        <v>185.4</v>
+        <v>165.4</v>
       </c>
       <c r="D20" s="2">
         <v>-1</v>
@@ -2053,18 +2400,18 @@
         <v>-1</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.5</v>
+        <v>14</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C21" s="3">
-        <v>205.4</v>
+        <v>141.2</v>
       </c>
       <c r="D21" s="2">
         <v>-1</v>
@@ -2073,18 +2420,18 @@
         <v>-1</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.75</v>
+        <v>15</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C22" s="3">
-        <v>174.9</v>
+        <v>192.3</v>
       </c>
       <c r="D22" s="2">
         <v>-1</v>
@@ -2093,18 +2440,18 @@
         <v>-1</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.25</v>
+        <v>15</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C23" s="3">
-        <v>157.7</v>
+        <v>157.5</v>
       </c>
       <c r="D23" s="2">
         <v>-1</v>
@@ -2113,18 +2460,18 @@
         <v>-1</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0.5</v>
+        <v>15</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C24" s="3">
-        <v>145.5</v>
+        <v>140.9</v>
       </c>
       <c r="D24" s="2">
         <v>-1</v>
@@ -2133,18 +2480,18 @@
         <v>-1</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0.75</v>
+        <v>15</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C25" s="3">
-        <v>134.8</v>
+        <v>131.9</v>
       </c>
       <c r="D25" s="2">
         <v>-1</v>
@@ -2153,38 +2500,198 @@
         <v>-1</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C26" s="3">
+        <v>185.4</v>
+      </c>
+      <c r="D26" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="3">
+        <v>205.4</v>
+      </c>
+      <c r="D27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3">
+        <v>174.9</v>
+      </c>
+      <c r="D28" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E28" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="3">
+        <v>180.1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="3">
+        <v>157.7</v>
+      </c>
+      <c r="D30" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="3">
+        <v>145.5</v>
+      </c>
+      <c r="D31" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E31" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="3">
+        <v>134.8</v>
+      </c>
+      <c r="D32" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="3">
+        <v>137.2</v>
+      </c>
+      <c r="D33" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E33" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="3">
         <v>198.3</v>
       </c>
-      <c r="D26" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E26" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>18</v>
+      <c r="D34" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E34" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F27"/>
+  <autoFilter ref="A1:F35"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2194,7 +2701,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
@@ -2225,8 +2732,8 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2">
-        <v>0.25</v>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="3">
         <v>6</v>
@@ -2238,15 +2745,15 @@
         <v>60</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.5</v>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C3" s="3">
         <v>3.1</v>
@@ -2258,15 +2765,15 @@
         <v>60</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.75</v>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="3">
         <v>1.4</v>
@@ -2278,81 +2785,81 @@
         <v>60</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.25</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C5" s="3">
-        <v>2.9</v>
+        <v>13.2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="2">
         <v>60</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.5</v>
-      </c>
       <c r="C6" s="3">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="D6" s="3">
-        <v>4.6</v>
+        <v>0.2</v>
       </c>
       <c r="E6" s="2">
         <v>60</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.75</v>
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C7" s="3">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="D7" s="3">
-        <v>0.4</v>
+        <v>4.6</v>
       </c>
       <c r="E7" s="2">
         <v>60</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.25</v>
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C8" s="3">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="D8" s="3">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E8" s="2">
         <v>60</v>
@@ -2363,373 +2870,533 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.5</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="3">
-        <v>2.1</v>
+        <v>3.9</v>
       </c>
       <c r="D9" s="3">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E9" s="2">
         <v>60</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.75</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C10" s="3">
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
       <c r="D10" s="3">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E10" s="2">
         <v>60</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.25</v>
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C11" s="3">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="D11" s="3">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="E11" s="2">
         <v>60</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2">
-        <v>0.5</v>
-      </c>
       <c r="C12" s="3">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="D12" s="3">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="E12" s="2">
         <v>60</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.75</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C13" s="3">
-        <v>1.6</v>
+        <v>8.9</v>
       </c>
       <c r="D13" s="3">
-        <v>3.5</v>
+        <v>0.1</v>
       </c>
       <c r="E13" s="2">
         <v>60</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.25</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C14" s="3">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="D14" s="3">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="E14" s="2">
         <v>60</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.5</v>
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C15" s="3">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="D15" s="3">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="E15" s="2">
         <v>60</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.75</v>
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C16" s="3">
-        <v>6.6</v>
+        <v>1.6</v>
       </c>
       <c r="D16" s="3">
-        <v>0.8</v>
+        <v>3.5</v>
       </c>
       <c r="E16" s="2">
         <v>60</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.25</v>
+        <v>13</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C17" s="3">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="D17" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E17" s="2">
         <v>60</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.5</v>
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C18" s="3">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="D18" s="3">
-        <v>4.3</v>
+        <v>0.3</v>
       </c>
       <c r="E18" s="2">
         <v>60</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.75</v>
+        <v>14</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C19" s="3">
-        <v>1.6</v>
+        <v>5.3</v>
       </c>
       <c r="D19" s="3">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="E19" s="2">
         <v>60</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.25</v>
+        <v>14</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C20" s="3">
-        <v>1.1</v>
+        <v>6.6</v>
       </c>
       <c r="D20" s="3">
-        <v>4.2</v>
+        <v>0.8</v>
       </c>
       <c r="E20" s="2">
         <v>60</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.5</v>
+        <v>14</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C21" s="3">
-        <v>2.8</v>
+        <v>7.4</v>
       </c>
       <c r="D21" s="3">
-        <v>1.4</v>
+        <v>0.1</v>
       </c>
       <c r="E21" s="2">
         <v>60</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.75</v>
+        <v>15</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C22" s="3">
-        <v>6.5</v>
+        <v>2.9</v>
       </c>
       <c r="D22" s="3">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E22" s="2">
         <v>60</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.25</v>
+        <v>15</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C23" s="3">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="D23" s="3">
-        <v>0.9</v>
+        <v>4.3</v>
       </c>
       <c r="E23" s="2">
         <v>60</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0.5</v>
+        <v>15</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C24" s="3">
-        <v>7.9</v>
+        <v>1.6</v>
       </c>
       <c r="D24" s="3">
-        <v>0.2</v>
+        <v>3.6</v>
       </c>
       <c r="E24" s="2">
         <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0.75</v>
+        <v>15</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C25" s="3">
-        <v>8.800000000000001</v>
+        <v>4</v>
       </c>
       <c r="D25" s="3">
-        <v>4.7</v>
+        <v>1.1</v>
       </c>
       <c r="E25" s="2">
         <v>60</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C26" s="3">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="D26" s="3">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="E26" s="2">
         <v>60</v>
       </c>
       <c r="F26" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="E27" s="2">
+        <v>60</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="E28" s="2">
+        <v>60</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="3">
+        <v>8</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="E29" s="2">
+        <v>60</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E30" s="2">
+        <v>60</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="3">
+        <v>7.9</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E31" s="2">
+        <v>60</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="3">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="D32" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="E32" s="2">
+        <v>60</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="3">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E33" s="2">
+        <v>60</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="B34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1.1</v>
+      </c>
+      <c r="E34" s="2">
+        <v>60</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F27"/>
+  <autoFilter ref="A1:F35"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2739,7 +3406,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
@@ -2770,8 +3437,8 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2">
-        <v>0.25</v>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="3">
         <v>4.7</v>
@@ -2783,15 +3450,15 @@
         <v>45.1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.5</v>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C3" s="3">
         <v>1.6</v>
@@ -2803,15 +3470,15 @@
         <v>41.8</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.75</v>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="3">
         <v>0.6</v>
@@ -2823,451 +3490,611 @@
         <v>41</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.25</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C5" s="3">
-        <v>1.5</v>
+        <v>7.9</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
       </c>
       <c r="E5" s="3">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.5</v>
-      </c>
       <c r="C6" s="3">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="D6" s="3">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="E6" s="3">
-        <v>42.6</v>
+        <v>47</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.75</v>
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C7" s="3">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="D7" s="3">
-        <v>0.1</v>
+        <v>2.8</v>
       </c>
       <c r="E7" s="3">
-        <v>43.1</v>
+        <v>42.6</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.25</v>
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C8" s="3">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="D8" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E8" s="3">
-        <v>42.7</v>
+        <v>43.1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.5</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="3">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="D9" s="3">
         <v>0.1</v>
       </c>
       <c r="E9" s="3">
-        <v>32.8</v>
+        <v>45.8</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.75</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C10" s="3">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="D10" s="3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>42</v>
+        <v>42.7</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.25</v>
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C11" s="3">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="D11" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E11" s="3">
-        <v>43.5</v>
+        <v>32.8</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2">
-        <v>0.5</v>
-      </c>
       <c r="C12" s="3">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="D12" s="3">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="E12" s="3">
-        <v>35.1</v>
+        <v>42</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.75</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C13" s="3">
-        <v>0.7</v>
+        <v>4.9</v>
       </c>
       <c r="D13" s="3">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E13" s="3">
-        <v>42.6</v>
+        <v>45.1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.25</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C14" s="3">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E14" s="3">
-        <v>39.4</v>
+        <v>43.5</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.5</v>
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C15" s="3">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="D15" s="3">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="E15" s="3">
-        <v>43.5</v>
+        <v>35.1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.75</v>
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C16" s="3">
-        <v>3.9</v>
+        <v>0.7</v>
       </c>
       <c r="D16" s="3">
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
       <c r="E16" s="3">
-        <v>44.9</v>
+        <v>42.6</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.25</v>
+        <v>13</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C17" s="3">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>42.3</v>
+        <v>47.7</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.5</v>
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C18" s="3">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="D18" s="3">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>33.4</v>
+        <v>39.4</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.75</v>
+        <v>14</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C19" s="3">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="D19" s="3">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="E19" s="3">
-        <v>44.5</v>
+        <v>43.5</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.25</v>
+        <v>14</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C20" s="3">
-        <v>0.3</v>
+        <v>3.9</v>
       </c>
       <c r="D20" s="3">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="E20" s="3">
-        <v>42.9</v>
+        <v>44.9</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.5</v>
+        <v>14</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C21" s="3">
-        <v>1.5</v>
+        <v>4.3</v>
       </c>
       <c r="D21" s="3">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E21" s="3">
-        <v>45.6</v>
+        <v>47</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.75</v>
+        <v>15</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C22" s="3">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="D22" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>45.7</v>
+        <v>42.3</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.25</v>
+        <v>15</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C23" s="3">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="D23" s="3">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="E23" s="3">
-        <v>43.6</v>
+        <v>33.4</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0.5</v>
+        <v>15</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C24" s="3">
-        <v>4.3</v>
+        <v>0.7</v>
       </c>
       <c r="D24" s="3">
-        <v>0.1</v>
+        <v>1.8</v>
       </c>
       <c r="E24" s="3">
-        <v>39.2</v>
+        <v>44.5</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0.75</v>
+        <v>15</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C25" s="3">
-        <v>4.7</v>
+        <v>1.9</v>
       </c>
       <c r="D25" s="3">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="E25" s="3">
-        <v>42</v>
+        <v>49.9</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C26" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="E26" s="3">
+        <v>42.9</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E27" s="3">
+        <v>45.6</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D28" s="3">
         <v>0.1</v>
       </c>
-      <c r="D26" s="3">
+      <c r="E28" s="3">
+        <v>45.7</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E29" s="3">
+        <v>45.2</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="D30" s="3">
         <v>0.5</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E30" s="3">
+        <v>43.6</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E31" s="3">
+        <v>39.2</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="D32" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="E32" s="3">
+        <v>42</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>43</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E34" s="3">
         <v>40.1</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>18</v>
+      <c r="F34" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F27"/>
+  <autoFilter ref="A1:F35"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/xls/stats-first_response-colin2.xlsx
+++ b/xls/stats-first_response-colin2.xlsx
@@ -93,13 +93,13 @@
     <t>-1.0</t>
   </si>
   <si>
-    <t xml:space="preserve"> nan</t>
+    <t>nan</t>
   </si>
   <si>
     <t>15.3</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1.1</t>
+    <t>1.1</t>
   </si>
   <si>
     <t>30.3</t>
@@ -111,7 +111,7 @@
     <t>23.4</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4.8</t>
+    <t>4.8</t>
   </si>
   <si>
     <t>12.7</t>
@@ -120,7 +120,7 @@
     <t>15.5</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5.0</t>
+    <t>5.0</t>
   </si>
   <si>
     <t>22.7</t>
@@ -129,7 +129,7 @@
     <t>22.6</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5.7</t>
+    <t>5.7</t>
   </si>
   <si>
     <t>26.5</t>
@@ -138,37 +138,37 @@
     <t>11.5</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6.9</t>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>8.9</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>6.9</t>
   </si>
   <si>
     <t>16.9</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7.6</t>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>7.6</t>
   </si>
   <si>
     <t>11.3</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2.8</t>
+    <t>2.8</t>
   </si>
   <si>
     <t>14.1</t>
@@ -177,19 +177,19 @@
     <t>10.8</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3.1</t>
+    <t>3.1</t>
   </si>
   <si>
     <t>14.6</t>
   </si>
   <si>
-    <t xml:space="preserve"> 7.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.6</t>
+    <t>7.7</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>3.6</t>
   </si>
 </sst>
 </file>
